--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>915943.2729059731</v>
+        <v>940704.5786978514</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7226289.925414164</v>
+        <v>8289674.162431624</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3187716.885615897</v>
+        <v>4234446.526755525</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10601278.34820128</v>
+        <v>10180039.69429826</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>308.1699826279565</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>74.62372476861202</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>89.30725745073111</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>37.83808333974875</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>73.78002900055105</v>
       </c>
       <c r="Y5" t="n">
-        <v>347.5169949287691</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.102998532960025</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>64.76583591206375</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1192,7 +1192,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>36.86740133315033</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>94.63926978364032</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.04518470759564</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.464536558263</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>193.5834138786834</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>347.2753970842789</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.65963851412519</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>8.915218264396685</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>165.1213059490036</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>163.6898441249713</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>192.0524966157156</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>147.5395905665108</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,7 +1782,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>171.7647334826869</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.71335210754949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>183.106052102757</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2010,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>143.9764333632482</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2086,22 +2086,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>383.6168705563023</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>50.9332811998914</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>107.4815339940124</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>238.17410418067</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>224.2650407293542</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>5.722134848647618</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>108.1026156447373</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>40.99909855081541</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>96.31572829406666</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>114.3176763163441</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3246,7 +3246,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>10.3175273983147</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247741</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>90.41948680756549</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>90.41948680756542</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>181.3691162394292</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>101.3208278811446</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>98.17502158542688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>39.56208598866433</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>110.7601806687364</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>141.7611174530632</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>323.7013721104195</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4191,16 +4191,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>51.57870353610205</v>
       </c>
       <c r="W46" t="n">
-        <v>278.5438617386462</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1194.175505447095</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="C2" t="n">
-        <v>1194.175505447095</v>
+        <v>1855.790121687965</v>
       </c>
       <c r="D2" t="n">
-        <v>1194.175505447095</v>
+        <v>1497.524423081215</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1111.73617048297</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>700.7502656933627</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>282.7864575915496</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X2" t="n">
-        <v>1970.914677487028</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y2" t="n">
-        <v>1580.775345511217</v>
+        <v>2224.752638628377</v>
       </c>
     </row>
     <row r="3">
@@ -4391,43 +4391,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661916</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837985</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>2147.451536646714</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X5" t="n">
-        <v>1773.985778385635</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.958510780817</v>
+        <v>1627.758233382657</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,31 +4646,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1637.643464250441</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>537.3268261969895</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4840,16 +4840,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1640.777806202926</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1640.777806202926</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y8" t="n">
-        <v>1640.777806202926</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>91.18278114677892</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>91.18278114677892</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>91.18278114677892</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>91.18278114677892</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>91.18278114677892</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4992,22 +4992,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>149.5382038240415</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>272.8312459770186</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1647.321240915451</v>
+        <v>1303.7189455667</v>
       </c>
       <c r="C11" t="n">
-        <v>1278.358723975039</v>
+        <v>934.756428626288</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>934.756428626288</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>934.756428626288</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>523.7705238366805</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.6858050925453</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.6858050925453</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>254.0744928369595</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>586.3643121319021</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1035.500977900981</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1566.921495383895</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2111.554760801561</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2612.501248106873</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3005.546484356408</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3252.53434141264</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3200.225838528231</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3004.687036630571</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883007</v>
+        <v>2751.155578417277</v>
       </c>
       <c r="V11" t="n">
-        <v>2741.012457539436</v>
+        <v>2420.092691073706</v>
       </c>
       <c r="W11" t="n">
-        <v>2388.243802269322</v>
+        <v>2067.324035803591</v>
       </c>
       <c r="X11" t="n">
-        <v>2037.460572891262</v>
+        <v>1693.858277542511</v>
       </c>
       <c r="Y11" t="n">
-        <v>1647.321240915451</v>
+        <v>1303.7189455667</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3156003142894</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8625710331625</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>607.9281613719111</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6907063664555</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1561483933406</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>165.7864839520668</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>75.22119252365748</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>159.2853526912741</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>396.510659118347</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158133</v>
+        <v>761.8119001858311</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1207.458086537445</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1679.307846295919</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2088.738397943176</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2398.009445431869</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2554.82975395794</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2554.82975395794</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2425.269938942936</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.600479990497</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.532201264788</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.380093033046</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.142736304844</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.291236099311</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.530937334358</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>231.8553933260938</v>
+        <v>699.8670312796767</v>
       </c>
       <c r="C13" t="n">
-        <v>231.8553933260938</v>
+        <v>530.9308483517698</v>
       </c>
       <c r="D13" t="n">
-        <v>231.8553933260938</v>
+        <v>380.814208939434</v>
       </c>
       <c r="E13" t="n">
-        <v>231.8553933260938</v>
+        <v>380.814208939434</v>
       </c>
       <c r="F13" t="n">
-        <v>231.8553933260938</v>
+        <v>233.9242614415236</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>110.9572157501788</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>314.3177428179429</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>630.0756374886839</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>973.3871879897964</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1313.970173580891</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1612.537390213391</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1844.49254089413</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1699.861054503352</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610489</v>
+        <v>1410.757887450811</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046018</v>
+        <v>1156.073399244924</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676413</v>
+        <v>866.6562292079632</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696239</v>
+        <v>866.6562292079632</v>
       </c>
       <c r="Y13" t="n">
-        <v>231.8553933260938</v>
+        <v>866.6562292079632</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1381.278680221569</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C14" t="n">
-        <v>1012.316163281157</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D14" t="n">
-        <v>863.2862738200353</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218345</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>3215.315153136267</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V14" t="n">
-        <v>2884.252265792697</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W14" t="n">
-        <v>2531.483610522582</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X14" t="n">
-        <v>2158.017852261502</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y14" t="n">
-        <v>1767.878520285691</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
         <v>1685.951113992584</v>
@@ -5381,16 +5381,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199866</v>
@@ -5402,7 +5402,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.2351809199102</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C16" t="n">
-        <v>675.2351809199102</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D16" t="n">
-        <v>675.2351809199102</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3220873375171</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1416.425065783663</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V16" t="n">
-        <v>1416.425065783663</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W16" t="n">
-        <v>1127.007895746702</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X16" t="n">
-        <v>899.0183448486848</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y16" t="n">
-        <v>856.88364575015</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>2776.829068225498</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>414.613856788637</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C19" t="n">
-        <v>245.6776738607301</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839441</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839441</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839441</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1810.912725333746</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1589.146109903272</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.146109903272</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V19" t="n">
-        <v>1334.461621697385</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W19" t="n">
-        <v>1045.044451660424</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X19" t="n">
-        <v>817.0549007624069</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y19" t="n">
-        <v>596.2623216188767</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>869.0763550278964</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>869.0763550278964</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>869.0763550278964</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193956</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420603</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390116</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>708.1835515663147</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="C22" t="n">
-        <v>708.1835515663147</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D22" t="n">
-        <v>558.0669121539789</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>1644.746393431758</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U22" t="n">
-        <v>1644.746393431758</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V22" t="n">
-        <v>1390.061905225871</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.614146438102</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.624595540085</v>
+        <v>763.7562014862567</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.8320163965544</v>
+        <v>542.9636223427266</v>
       </c>
     </row>
     <row r="23">
@@ -5968,25 +5968,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -6007,13 +6007,13 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L24" t="n">
         <v>794.2006632320242</v>
@@ -6086,16 +6086,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1120.662598458018</v>
+        <v>561.5038042865474</v>
       </c>
       <c r="C25" t="n">
-        <v>951.7264155301116</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D25" t="n">
-        <v>801.6097761177758</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V25" t="n">
-        <v>1542.890966501056</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W25" t="n">
-        <v>1302.311063288258</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X25" t="n">
-        <v>1302.311063288258</v>
+        <v>963.9448482603173</v>
       </c>
       <c r="Y25" t="n">
-        <v>1302.311063288258</v>
+        <v>743.1522691167871</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6229,25 +6229,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364128</v>
+        <v>1732.058578925875</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193956</v>
+        <v>2265.5904835978</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>2812.369300656582</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986037</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>730.2297869963112</v>
+        <v>713.5009252592428</v>
       </c>
       <c r="C28" t="n">
-        <v>561.2936040684043</v>
+        <v>544.5647423313359</v>
       </c>
       <c r="D28" t="n">
-        <v>411.1769646560685</v>
+        <v>394.4481029190001</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839441</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.890966501056</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V28" t="n">
-        <v>1288.206478295169</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W28" t="n">
-        <v>1179.011917037859</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X28" t="n">
-        <v>951.0223661398413</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y28" t="n">
-        <v>730.2297869963112</v>
+        <v>895.1493900894825</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6466,19 +6466,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193956</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420603</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107236</v>
@@ -6499,16 +6499,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
         <v>794.2006632320243</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>452.5901955154781</v>
+        <v>974.4083489326728</v>
       </c>
       <c r="C31" t="n">
-        <v>452.5901955154781</v>
+        <v>805.4721660047659</v>
       </c>
       <c r="D31" t="n">
-        <v>452.5901955154781</v>
+        <v>655.3555265924301</v>
       </c>
       <c r="E31" t="n">
-        <v>304.6771019330849</v>
+        <v>507.442433010037</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>360.5524855121266</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8496488868456</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839441</v>
@@ -6657,16 +6657,16 @@
         <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.789495593986</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W31" t="n">
-        <v>901.3723255570255</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X31" t="n">
-        <v>673.3827746590082</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="Y31" t="n">
-        <v>452.5901955154781</v>
+        <v>1156.056813762912</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6703,16 +6703,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>750.1800661608906</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L32" t="n">
-        <v>1614.698881814245</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2593.249184644074</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N32" t="n">
-        <v>3573.001456870721</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>525.6262188911253</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>525.6262188911253</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>525.6262188911253</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839441</v>
@@ -6858,10 +6858,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1445.473983799873</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W34" t="n">
-        <v>1156.056813762912</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X34" t="n">
-        <v>928.0672628648952</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y34" t="n">
-        <v>707.274683721365</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2319.94651820049</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>1950.984001260078</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1592.718302653328</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1206.930050055083</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>795.9441452654758</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>380.8716951104722</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>83.28809471923942</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>83.28809471923942</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>439.5728746986179</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>773.3922483884644</v>
       </c>
       <c r="L35" t="n">
-        <v>1237.706702364128</v>
+        <v>1637.911064041819</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2171.442968713744</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>2959.354470412971</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3462.326941292308</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>3857.101307649486</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4105.387669405169</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4164.404735961971</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4164.404735961971</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4164.404735961971</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4153.982991115188</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3822.920103771618</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3470.151448501503</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3096.685690240423</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2706.546358264612</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>958.3198327681646</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>783.8668034870376</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>634.9323938257863</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>475.6949388203308</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>329.1603808472158</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>192.7972806798339</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>102.2953863177015</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>83.28809471923942</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>176.9653642098568</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>415.2295631902039</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>781.9277235028693</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1229.204048725185</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1702.72709227964</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2113.688371697694</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2424.187963173797</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2581.829520820397</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2581.685167412913</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2452.247280906392</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2259.604280584248</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2031.536433718664</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1796.384325486921</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1542.146968758719</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1334.295468553187</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1126.535169788233</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>481.6968904858347</v>
+        <v>469.4239507566797</v>
       </c>
       <c r="C37" t="n">
-        <v>481.6968904858347</v>
+        <v>469.4239507566797</v>
       </c>
       <c r="D37" t="n">
-        <v>390.3640755286979</v>
+        <v>469.4239507566797</v>
       </c>
       <c r="E37" t="n">
-        <v>242.4509819463048</v>
+        <v>321.5108571742866</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>174.6209096763762</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>83.28809471923942</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>83.28809471923942</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>83.28809471923942</v>
       </c>
       <c r="J37" t="n">
-        <v>140.68366689533</v>
+        <v>128.410727166175</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>332.3979101150513</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>648.9577085635474</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>993.1147541630964</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>1334.523130868961</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1633.852729789375</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952189</v>
+        <v>1866.460230223034</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1944.070526375549</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1944.070526375549</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1752.384642202375</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1530.618026771901</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1241.515159897544</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>986.8306716916576</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838521</v>
+        <v>697.413501654697</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858347</v>
+        <v>469.4239507566797</v>
       </c>
       <c r="Y37" t="n">
-        <v>481.6968904858347</v>
+        <v>469.4239507566797</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2205.267850441168</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>1836.305333500756</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1478.039634894006</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1092.251382295761</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551618</v>
+        <v>681.265477506154</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>266.1930273511504</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>271.8710307956009</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>884.4272294575821</v>
       </c>
       <c r="L38" t="n">
-        <v>1237.706702364128</v>
+        <v>1335.461442705991</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193956</v>
+        <v>1868.993347377916</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420603</v>
+        <v>2415.772164436698</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>2918.744635316035</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>3632.099722762981</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4090.577925271969</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4039.304323355866</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4039.304323355866</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4039.304323355866</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3708.241436012296</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3355.472780742181</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>2982.007022481102</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2591.86769050529</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>958.0236378855016</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>783.5706086043746</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>634.6361989431234</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>475.3987439376679</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>328.8641859645529</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>192.5010857971709</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>101.9991914350378</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>176.6691693271931</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>414.9333683075404</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>781.6315286202062</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1228.907853842522</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1702.430897396976</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2113.392176815031</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2423.891768291134</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2581.533325937734</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2581.38897253025</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2451.95108602373</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2259.308085701585</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2031.240238836001</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1796.088130604258</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1541.850773876056</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1333.999273670524</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1126.23897490557</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>492.7083461157126</v>
+        <v>479.1651752169497</v>
       </c>
       <c r="C40" t="n">
-        <v>492.7083461157126</v>
+        <v>479.1651752169497</v>
       </c>
       <c r="D40" t="n">
-        <v>390.3640755286979</v>
+        <v>329.0485358046139</v>
       </c>
       <c r="E40" t="n">
-        <v>242.4509819463048</v>
+        <v>329.0485358046139</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>182.1585883067036</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J40" t="n">
-        <v>140.68366689533</v>
+        <v>128.114532283511</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>332.1017152323874</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>648.6615136808834</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>992.8185592804325</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>1334.226935986297</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1633.556534906711</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952189</v>
+        <v>1866.16403534037</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1722.007716062411</v>
       </c>
       <c r="U40" t="n">
-        <v>1667.240599230347</v>
+        <v>1432.904849188054</v>
       </c>
       <c r="V40" t="n">
-        <v>1412.556111024461</v>
+        <v>1178.220360982167</v>
       </c>
       <c r="W40" t="n">
-        <v>1123.1389409875</v>
+        <v>888.8031909452068</v>
       </c>
       <c r="X40" t="n">
-        <v>895.1493900894825</v>
+        <v>660.8136400471894</v>
       </c>
       <c r="Y40" t="n">
-        <v>674.3568109459524</v>
+        <v>660.8136400471894</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>1745.759626099227</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>1376.797109158815</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1336.835406139962</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>951.0471535417178</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>540.0612487521103</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001586</v>
+        <v>124.9887985971067</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089258</v>
+        <v>124.9887985971067</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>271.8710307956009</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>926.5943629309004</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1377.628576179309</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>1911.160480851234</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2457.939297910016</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3337.903948239471</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>3842.291563516287</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4090.577925271969</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4039.304323355866</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>3833.326575740089</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>3579.796099013925</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3248.733211670354</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>2895.96455640024</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>2522.49879813916</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2132.359466163348</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>958.0236378855005</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>783.5706086043735</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>634.6361989431223</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>475.3987439376668</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>328.8641859645518</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>192.5010857971699</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>101.9991914350375</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>176.6691693271928</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>414.9333683075399</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>781.6315286202052</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1228.907853842521</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1702.430897396976</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2113.39217681503</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2423.891768291133</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2581.533325937733</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2581.388972530248</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2451.951086023728</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2259.308085701584</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2031.240238835999</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1796.088130604257</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1541.850773876055</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1333.999273670522</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1126.238974905569</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.2704579839216</v>
+        <v>660.8136400471894</v>
       </c>
       <c r="C43" t="n">
-        <v>560.2704579839216</v>
+        <v>491.8774571192826</v>
       </c>
       <c r="D43" t="n">
-        <v>410.1538185715858</v>
+        <v>341.7608177069468</v>
       </c>
       <c r="E43" t="n">
-        <v>410.1538185715858</v>
+        <v>341.7608177069468</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>194.8708702090364</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J43" t="n">
-        <v>140.68366689533</v>
+        <v>128.114532283511</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>332.1017152323874</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>648.6615136808834</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>992.8185592804325</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>1334.226935986297</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1633.556534906711</v>
       </c>
       <c r="P43" t="n">
-        <v>1878.733169952189</v>
+        <v>1866.16403534037</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="T43" t="n">
-        <v>1621.464533999143</v>
+        <v>1722.007716062411</v>
       </c>
       <c r="U43" t="n">
-        <v>1332.361667124786</v>
+        <v>1432.904849188054</v>
       </c>
       <c r="V43" t="n">
-        <v>1077.677178918899</v>
+        <v>1178.220360982167</v>
       </c>
       <c r="W43" t="n">
-        <v>788.2600088819389</v>
+        <v>888.8031909452068</v>
       </c>
       <c r="X43" t="n">
-        <v>560.2704579839216</v>
+        <v>660.8136400471894</v>
       </c>
       <c r="Y43" t="n">
-        <v>560.2704579839216</v>
+        <v>660.8136400471894</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2319.650323317826</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>1950.687806377414</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1592.422107770664</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1206.633855172419</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>795.6479503828118</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>380.5755002278082</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089255</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>271.8710307956009</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>605.6904044854473</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1056.724617733856</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2035.274920563685</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>2944.544726279772</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3447.517197159108</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>3842.291563516287</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4090.577925271969</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3822.623908888954</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3469.855253618839</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3096.38949535776</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2706.250163381948</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>958.0236378855005</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>783.5706086043735</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>634.6361989431223</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>475.3987439376668</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>328.8641859645518</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>192.5010857971699</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>101.9991914350375</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>176.6691693271928</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>414.9333683075399</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>781.6315286202052</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1228.907853842521</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1702.430897396976</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2113.39217681503</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2423.891768291133</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2581.533325937733</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2581.388972530248</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2451.951086023728</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2259.308085701584</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2031.240238835999</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1796.088130604257</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1541.850773876055</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1333.999273670522</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1126.238974905569</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>558.0669121539789</v>
+        <v>696.8477632571215</v>
       </c>
       <c r="C46" t="n">
-        <v>558.0669121539789</v>
+        <v>527.9115803292146</v>
       </c>
       <c r="D46" t="n">
-        <v>558.0669121539789</v>
+        <v>377.7949409168789</v>
       </c>
       <c r="E46" t="n">
-        <v>410.1538185715858</v>
+        <v>229.8818473344858</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>128.114532283511</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>332.1017152323874</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>648.6615136808834</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>992.8185592804325</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1334.226935986297</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1633.556534906711</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952189</v>
+        <v>1866.16403534037</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1853.943874250413</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1662.257990077239</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1440.491374646765</v>
       </c>
       <c r="U46" t="n">
-        <v>1542.890966501056</v>
+        <v>1151.388507772409</v>
       </c>
       <c r="V46" t="n">
-        <v>1288.206478295169</v>
+        <v>1099.288807230891</v>
       </c>
       <c r="W46" t="n">
-        <v>1006.849042195526</v>
+        <v>1099.288807230891</v>
       </c>
       <c r="X46" t="n">
-        <v>778.8594912975091</v>
+        <v>1099.288807230891</v>
       </c>
       <c r="Y46" t="n">
-        <v>558.0669121539789</v>
+        <v>878.4962280873613</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.5463950602909904</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9169,16 +9169,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9406,16 +9406,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9877,28 +9877,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277297</v>
+        <v>345.3140082169162</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,22 +10114,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>411.0304280898994</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>133.2530576400261</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>243.5683683236822</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10825,25 +10825,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>281.5523484567018</v>
       </c>
       <c r="L38" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>110.7204534541794</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11302,16 +11302,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>366.1525137952572</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>73.76038744430531</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22564,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>249.2990479957451</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22707,28 +22707,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>59.30821556748124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22761,7 +22761,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22789,7 +22789,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22804,7 +22804,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>295.951071677918</v>
       </c>
       <c r="Y5" t="n">
-        <v>38.72094372728446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85.19271039829698</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22965,7 +22965,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23001,7 +23001,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>379.6308431305205</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23032,7 +23032,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>342.1102098296477</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23080,7 +23080,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23193,7 +23193,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>130.4424009259006</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -23232,19 +23232,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>131.0703856053968</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23266,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.7321536188797</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>10.38772495237089</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>22.45570359419008</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>14.71067423293366</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.335964134056951</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.51626366671985</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>89.17712508496183</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>190.681345047765</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>207.1434510541722</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>53.94492190635026</v>
       </c>
       <c r="Y16" t="n">
-        <v>176.8713012445453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>144.6462063673779</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23940,13 +23940,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>45.79259196819373</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23974,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>23.25917518540911</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>235.5897171366996</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>118.2281213950247</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>48.34889415592104</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>1.444614659682998</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>140.7118277979216</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24651,25 +24651,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>178.4203826918537</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>104.4219494721158</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>48.43928662025412</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>32.11628633022509</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>240.6776445605873</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>58.19598621064686</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>75.6063214514628</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>113.2386481478912</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>47.29464513706775</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>67.85078667360135</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25602,7 +25602,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>315.1209556320186</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>55.26562759029183</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>77.78783182310596</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>4.050886359715378</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>200.558939787726</v>
       </c>
       <c r="W46" t="n">
-        <v>7.979136597944773</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>770429.2612857188</v>
+        <v>770429.2612857189</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>770429.261285719</v>
+        <v>770429.2612857189</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839712.5002338423</v>
+        <v>838126.660090119</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839712.5002338424</v>
+        <v>839712.5002338423</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>997148.1876184228</v>
+        <v>839712.5002338422</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>997148.1876184229</v>
+        <v>839712.5002338422</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>997148.1876184229</v>
+        <v>997148.1876184228</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>997148.1876184229</v>
+        <v>997148.1876184228</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>997148.1876184229</v>
+        <v>997148.1876184228</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>997148.1876184228</v>
+        <v>930632.8461034389</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>997148.1876184228</v>
+        <v>929027.5661778329</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>997148.1876184229</v>
+        <v>929027.5661778329</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>997148.1876184229</v>
+        <v>929027.5661778329</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165457</v>
       </c>
       <c r="C2" t="n">
+        <v>303610.2405165454</v>
+      </c>
+      <c r="D2" t="n">
         <v>303610.2405165455</v>
       </c>
-      <c r="D2" t="n">
-        <v>303610.2405165456</v>
-      </c>
       <c r="E2" t="n">
+        <v>357333.370731361</v>
+      </c>
+      <c r="F2" t="n">
         <v>358046.9539194664</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>358046.9539194667</v>
       </c>
-      <c r="G2" t="n">
-        <v>416935.8762313324</v>
-      </c>
       <c r="H2" t="n">
-        <v>416935.8762313323</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="I2" t="n">
         <v>416935.8762313324</v>
       </c>
       <c r="J2" t="n">
-        <v>416935.8762313323</v>
+        <v>416935.8762313325</v>
       </c>
       <c r="K2" t="n">
         <v>416935.8762313323</v>
       </c>
       <c r="L2" t="n">
-        <v>416935.8762313324</v>
+        <v>416935.8762313323</v>
       </c>
       <c r="M2" t="n">
-        <v>416935.8762313324</v>
+        <v>392055.7690326725</v>
       </c>
       <c r="N2" t="n">
-        <v>416935.8762313323</v>
+        <v>391455.3130217241</v>
       </c>
       <c r="O2" t="n">
-        <v>416935.8762313323</v>
+        <v>391455.3130217241</v>
       </c>
       <c r="P2" t="n">
-        <v>416935.8762313324</v>
+        <v>391455.3130217241</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>618960.3159503535</v>
+        <v>615427.5337980478</v>
       </c>
       <c r="F3" t="n">
-        <v>3.100233243458205e-10</v>
+        <v>3449.010472953407</v>
       </c>
       <c r="G3" t="n">
-        <v>99523.40868091458</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>96558.96659736063</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39153.48277254672</v>
+        <v>1.599055394763127e-10</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>87383.13961898984</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>62518.47524617217</v>
       </c>
       <c r="C4" t="n">
-        <v>62518.47524617217</v>
+        <v>62518.47524617216</v>
       </c>
       <c r="D4" t="n">
         <v>62518.47524617217</v>
       </c>
       <c r="E4" t="n">
-        <v>4890.851381993015</v>
+        <v>4967.456039976125</v>
       </c>
       <c r="F4" t="n">
         <v>4890.851381993015</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499381</v>
+        <v>4890.851381993015</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499381</v>
+        <v>4890.851381993015</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499382</v>
+        <v>16556.43626882339</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499381</v>
+        <v>16350.4699467623</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499382</v>
+        <v>16350.4699467623</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499381</v>
+        <v>16350.4699467623</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>74015.36825377261</v>
+      </c>
+      <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="F5" t="n">
-        <v>74306.34056139333</v>
-      </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26502,16 +26502,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>87056.08405955585</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>86830.97594873123</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>86830.97594873123</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>86830.97594873123</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-437803.6057534</v>
+        <v>-432342.0333821625</v>
       </c>
       <c r="C6" t="n">
-        <v>152164.2734611447</v>
+        <v>157625.8458323819</v>
       </c>
       <c r="D6" t="n">
-        <v>152164.2734611448</v>
+        <v>157625.845832382</v>
       </c>
       <c r="E6" t="n">
-        <v>-343586.7432723345</v>
+        <v>-337428.0043054231</v>
       </c>
       <c r="F6" t="n">
-        <v>275373.5726780189</v>
+        <v>275053.1325733205</v>
       </c>
       <c r="G6" t="n">
-        <v>195266.2707194525</v>
+        <v>278502.1430462743</v>
       </c>
       <c r="H6" t="n">
-        <v>294789.6794003669</v>
+        <v>278502.1430462742</v>
       </c>
       <c r="I6" t="n">
-        <v>294789.679400367</v>
+        <v>198835.4722150385</v>
       </c>
       <c r="J6" t="n">
-        <v>118366.4602077739</v>
+        <v>118971.2196198063</v>
       </c>
       <c r="K6" t="n">
-        <v>294789.6794003669</v>
+        <v>295394.4388123991</v>
       </c>
       <c r="L6" t="n">
-        <v>294789.679400367</v>
+        <v>295394.4388123989</v>
       </c>
       <c r="M6" t="n">
-        <v>255636.1966278202</v>
+        <v>288257.5765131213</v>
       </c>
       <c r="N6" t="n">
-        <v>294789.6794003669</v>
+        <v>288085.3356207209</v>
       </c>
       <c r="O6" t="n">
-        <v>207406.539781377</v>
+        <v>288085.3356207209</v>
       </c>
       <c r="P6" t="n">
-        <v>294789.679400367</v>
+        <v>288085.3356207209</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>1086.755407162286</v>
+      </c>
+      <c r="F3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26798,16 +26798,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
+        <v>827.6990193689928</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022931</v>
-      </c>
       <c r="G4" t="n">
-        <v>1194.51293060493</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>1194.51293060493</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
         <v>1194.51293060493</v>
@@ -26822,16 +26822,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1194.51293060493</v>
+        <v>1041.101183990493</v>
       </c>
       <c r="N4" t="n">
-        <v>1194.51293060493</v>
+        <v>1037.398747957193</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.51293060493</v>
+        <v>1037.398747957193</v>
       </c>
       <c r="P4" t="n">
-        <v>1194.51293060493</v>
+        <v>1037.398747957193</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,31 +26968,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>709.0117429451998</v>
       </c>
       <c r="F3" t="n">
+        <v>3.021293431011827</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.114182647737</v>
+        <v>153.4117466144372</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>3.702436033299819</v>
       </c>
       <c r="G4" t="n">
-        <v>363.1114752026369</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>363.1114752026377</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477373</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>363.1114752026372</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.114182647737</v>
+        <v>153.4117466144372</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>3.702436033299819</v>
       </c>
       <c r="O4" t="n">
-        <v>363.1114752026369</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.368865958441349</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.74264849688748</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.4307048628103</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>370.8020371402618</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>555.7361331610842</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>689.4398147367339</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>767.1346347251651</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>779.5476751295867</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>736.1047642553355</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>628.2483859063145</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>471.7883737696336</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>274.4357762619417</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.55553302798235</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3495092766753079</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.337549366349069</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.57580572237127</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.48141458701839</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>220.8471530724794</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>377.462960617867</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>507.5455323732924</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>592.281696903446</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>607.9576310312871</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>556.1624582295524</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>446.3694048776569</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>298.3861261325584</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.41895423898378</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.42196433190699</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1537861425229651</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.42371783942159</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>58.93421126053843</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>227.6841656317052</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>291.3573430939678</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>307.1954669786771</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>299.8910453895538</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>276.9979191894956</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.0195727358533</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.11626629220765</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.15262484475577</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.373361333873351</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1068939744749791</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32551,7 +32551,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -33262,7 +33262,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33736,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33973,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34210,7 +34210,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34447,7 +34447,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>189.7561326135755</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>335.6462821161037</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>453.6733997667466</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>536.7884014978924</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>550.1346115329957</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>506.0065528336487</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>397.015390151045</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>249.4826838951841</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>58.85023844780955</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.00952640581272</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>239.621521643508</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>368.9911525934182</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>450.1476629814277</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>476.6159189479538</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>413.5662137851079</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>312.3949974633267</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>158.4043520465369</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.19322646531248</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>205.4146738058223</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>318.9473683542839</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>346.7793439405177</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.0232177687824</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>301.5830471035353</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.2981320007468</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>77.93802322981087</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -36126,16 +36126,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36372,7 +36372,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36597,28 +36597,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200619</v>
+        <v>800.9041226092484</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>963.3322635028109</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>470.4443441954251</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282451</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597718</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>795.8702037365937</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37545,25 +37545,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>618.7436350121023</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37782,22 +37782,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>509.4824396735513</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>918.4543492081687</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
